--- a/Scrum/Scrum sprints.xlsx
+++ b/Scrum/Scrum sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dg1\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1759D7E-A902-4991-8081-43499E1E2774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261DE4E7-3B0A-4347-91A5-80FD73442EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>TO DO</t>
   </si>
@@ -69,15 +69,17 @@
     <t>SCRUM BOARD PROJECT: DG1 Eindopdracht programmeren</t>
   </si>
   <si>
-    <t>De forum pagina
-Hoofdthema gaming</t>
-  </si>
-  <si>
     <t>Like en dislike knoppen</t>
   </si>
   <si>
-    <t>Hoofdthema PC
-Hoofdthema Consoles
+    <t>De forum pagina</t>
+  </si>
+  <si>
+    <t>Hoofdthema gaming
+Hoofdthema PC</t>
+  </si>
+  <si>
+    <t>Hoofdthema Consoles
 Posts aanmaken
 Reageren op posts</t>
   </si>
@@ -445,6 +447,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,33 +514,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -488,44 +529,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -535,9 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -899,23 +901,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
@@ -933,296 +935,303 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="30"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="30"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="30"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="30"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="30"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="30"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="30"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="30"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="30"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="32"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="30"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="30"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="30"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="30"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="30"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="30"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="30"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="30"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="30"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="30"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="30"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="30"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="11"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C7:C22"/>
+    <mergeCell ref="D7:D22"/>
+    <mergeCell ref="E7:E22"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="B23:B37"/>
     <mergeCell ref="C23:C37"/>
@@ -1232,13 +1241,6 @@
     <mergeCell ref="C38:C52"/>
     <mergeCell ref="D38:D52"/>
     <mergeCell ref="E38:E52"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="C7:C22"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="E7:E22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1259,7 +1261,7 @@
   <dimension ref="B1:E55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="C7" sqref="C7:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1271,23 +1273,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
@@ -1305,307 +1307,302 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="33"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="19"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="34"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="19"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="19"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="35"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="36"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="19"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="19"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="19"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="19"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="19"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="19"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="19"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="19"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="19"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="19"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="19"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="20"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="C7:C22"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="E7:E22"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="B23:B37"/>
     <mergeCell ref="C23:C37"/>
@@ -1615,6 +1612,13 @@
     <mergeCell ref="C38:C52"/>
     <mergeCell ref="D38:D52"/>
     <mergeCell ref="E38:E52"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C7:C22"/>
+    <mergeCell ref="D7:D22"/>
+    <mergeCell ref="E7:E22"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Scrum/Scrum sprints.xlsx
+++ b/Scrum/Scrum sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dg1\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261DE4E7-3B0A-4347-91A5-80FD73442EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A0E1B5-A8FB-4063-961A-4A0342E8668E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,17 +69,19 @@
     <t>SCRUM BOARD PROJECT: DG1 Eindopdracht programmeren</t>
   </si>
   <si>
-    <t>Like en dislike knoppen</t>
+    <t>Like en dislike knoppen
+Report knop</t>
   </si>
   <si>
-    <t>De forum pagina</t>
+    <t>De forum pagina
+Hoofdthema gaming</t>
   </si>
   <si>
-    <t>Hoofdthema gaming
-Hoofdthema PC</t>
+    <t xml:space="preserve">Hoofdthema Consoles
+</t>
   </si>
   <si>
-    <t>Hoofdthema Consoles
+    <t>Hoofdthema PC
 Posts aanmaken
 Reageren op posts</t>
   </si>
@@ -436,7 +438,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,66 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -514,12 +456,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -529,17 +492,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -901,23 +906,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
@@ -935,293 +940,671 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="31"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="10"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="11"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="33"/>
+    </row>
+    <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C37"/>
+    <mergeCell ref="D23:D37"/>
+    <mergeCell ref="E23:E37"/>
+    <mergeCell ref="B38:B52"/>
+    <mergeCell ref="C38:C52"/>
+    <mergeCell ref="D38:D52"/>
+    <mergeCell ref="E38:E52"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C7:C22"/>
+    <mergeCell ref="D7:D22"/>
+    <mergeCell ref="E7:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CCEB5A-847B-42A2-AB37-C3FE7959BA82}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:E55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="5" width="74.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="32"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="32"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="32"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="32"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="32"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="32"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="32"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="32"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="32"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="32"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="34"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="17"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="16"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="16"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="19"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="23"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1242,384 +1625,6 @@
     <mergeCell ref="D38:D52"/>
     <mergeCell ref="E38:E52"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CCEB5A-847B-42A2-AB37-C3FE7959BA82}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:E55"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="5" width="74.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="35"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="37"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="32"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="32"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="32"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="19"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="33"/>
-    </row>
-    <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="C23:C37"/>
-    <mergeCell ref="D23:D37"/>
-    <mergeCell ref="E23:E37"/>
-    <mergeCell ref="B38:B52"/>
-    <mergeCell ref="C38:C52"/>
-    <mergeCell ref="D38:D52"/>
-    <mergeCell ref="E38:E52"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="C7:C22"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="E7:E22"/>
-  </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/Scrum/Scrum sprints.xlsx
+++ b/Scrum/Scrum sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dg1\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A0E1B5-A8FB-4063-961A-4A0342E8668E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A39512-7B51-4075-A7BF-921231919304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,16 +74,17 @@
   </si>
   <si>
     <t>De forum pagina
-Hoofdthema gaming</t>
+Hoofdthema gaming
+Hoofdthema PC</t>
   </si>
   <si>
-    <t xml:space="preserve">Hoofdthema Consoles
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>Hoofdthema PC
-Posts aanmaken
-Reageren op posts</t>
+    <t>Posts aanmaken
+Reageren op posts
+Hoofdthema Consoles</t>
   </si>
 </sst>
 </file>
@@ -449,6 +450,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,33 +517,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -492,44 +532,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -539,12 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -906,23 +907,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
@@ -940,296 +941,303 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="18" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="29"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="30"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="30"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="30"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="30"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="30"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="30"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="16"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="30"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="30"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="30"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="30"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="30"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="30"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="32"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="30"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="30"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="30"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="30"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="30"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="30"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="30"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="30"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="30"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="30"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="30"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="30"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="30"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="11"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="33"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="23"/>
     </row>
     <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C7:C22"/>
+    <mergeCell ref="D7:D22"/>
+    <mergeCell ref="E7:E22"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="B23:B37"/>
     <mergeCell ref="C23:C37"/>
@@ -1239,13 +1247,6 @@
     <mergeCell ref="C38:C52"/>
     <mergeCell ref="D38:D52"/>
     <mergeCell ref="E38:E52"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="C7:C22"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="E7:E22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1278,23 +1279,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
@@ -1312,309 +1313,302 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="32"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="19"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="19"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="19"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="32"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="24"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="35"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="36"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="19"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="19"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="19"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="19"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="19"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="19"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="19"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="32"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="19"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="19"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="19"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="19"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="19"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="32"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="19"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="32"/>
     </row>
     <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="11"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="20"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="33"/>
     </row>
     <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="21"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="C7:C22"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="E7:E22"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="B23:B37"/>
     <mergeCell ref="C23:C37"/>
@@ -1624,6 +1618,13 @@
     <mergeCell ref="C38:C52"/>
     <mergeCell ref="D38:D52"/>
     <mergeCell ref="E38:E52"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C7:C22"/>
+    <mergeCell ref="D7:D22"/>
+    <mergeCell ref="E7:E22"/>
   </mergeCells>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Scrum/Scrum sprints.xlsx
+++ b/Scrum/Scrum sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dg1\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A39512-7B51-4075-A7BF-921231919304}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAA6DEE-46C6-4EF7-A5F4-84CFE692BA70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>TO DO</t>
   </si>
@@ -73,16 +73,14 @@
 Report knop</t>
   </si>
   <si>
-    <t>De forum pagina
-Hoofdthema gaming
-Hoofdthema PC</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>Posts aanmaken
+    <t>De forum pagina
+Hoofdthema gaming
+Hoofdthema PC
+Posts aanmaken
 Reageren op posts
 Hoofdthema Consoles</t>
   </si>
@@ -91,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +156,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -439,7 +444,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,66 +454,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,12 +462,33 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -532,20 +498,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -907,23 +915,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
@@ -941,293 +949,669 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="10"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="10"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="10"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="31"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="30"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="30"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="30"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="30"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="30"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="30"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="30"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="30"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="30"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="10"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="11"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="33"/>
+    </row>
+    <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="C23:C37"/>
+    <mergeCell ref="D23:D37"/>
+    <mergeCell ref="E23:E37"/>
+    <mergeCell ref="B38:B52"/>
+    <mergeCell ref="C38:C52"/>
+    <mergeCell ref="D38:D52"/>
+    <mergeCell ref="E38:E52"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B7:B22"/>
+    <mergeCell ref="C7:C22"/>
+    <mergeCell ref="D7:D22"/>
+    <mergeCell ref="E7:E22"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CCEB5A-847B-42A2-AB37-C3FE7959BA82}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:E55"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="5" width="74.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="32"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="38" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="16"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="16"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="16"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="16"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="16"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="17"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="35"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="22"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="16"/>
+      <c r="E41" s="19"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="16"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="16"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="16"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="16"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="16"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="16"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="16"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="16"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="19"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="23"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="20"/>
     </row>
     <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1248,385 +1632,7 @@
     <mergeCell ref="D38:D52"/>
     <mergeCell ref="E38:E52"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CCEB5A-847B-42A2-AB37-C3FE7959BA82}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:E55"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="5" width="74.69921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="B2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="28"/>
-    </row>
-    <row r="5" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="32"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="32"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="32"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="32"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="32"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="2:5" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="36"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="32"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="32"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="32"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="7"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="32"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="32"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="32"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="32"/>
-    </row>
-    <row r="37" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="37"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="38"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="32"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="32"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="32"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="32"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="32"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="32"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="32"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="32"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="32"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="7"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="32"/>
-    </row>
-    <row r="52" spans="2:5" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="19"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="33"/>
-    </row>
-    <row r="55" spans="2:5" ht="36.6" x14ac:dyDescent="0.3">
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="C23:C37"/>
-    <mergeCell ref="D23:D37"/>
-    <mergeCell ref="E23:E37"/>
-    <mergeCell ref="B38:B52"/>
-    <mergeCell ref="C38:C52"/>
-    <mergeCell ref="D38:D52"/>
-    <mergeCell ref="E38:E52"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B7:B22"/>
-    <mergeCell ref="C7:C22"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="E7:E22"/>
-  </mergeCells>
-  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="45" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>